--- a/_files/美國菲力浦斯曲線.xlsx
+++ b/_files/美國菲力浦斯曲線.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aphoe\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aphoe\OneDrive\文件\GitHub\leetalk\_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33492B2-FBF7-46FE-B9D4-AC05549BCCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D39F8-D48B-4D26-96A7-F503D174DD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{441FC51A-332F-4F3D-8893-17DF53C8F9A6}"/>
   </bookViews>
@@ -754,6 +754,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6899,6 +6900,3846 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.8015535870516185"/>
+          <c:h val="0.89810185185185187"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>inflation rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>月!$C$2:$C$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>14.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>月!$D$2:$D$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>1.9964397760000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.711304513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7640429440000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0512779820000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2586293410000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2016696440000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4544013309999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5815115439999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2851297399999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7454273310000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.110322794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7902284690000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5224699290000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1766010320000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.801011715</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2769721939999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.462743943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9101588490000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0364028660000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0597579649999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5248147460000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.2626925030000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6484846559999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.5424555550000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.749779889</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.334873564</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8090028399999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.862522741</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1090824750000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.041128702</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.202582939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6991801039999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4101469690000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.811464806</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4865719550000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2329638649999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.359711404</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8710638980000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.199689878</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8748777210000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.949515087</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.520135266</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.8715478349999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2218689029999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2117954210000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.551235138</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6925371629999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.4798724679999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0705076199999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5393269919999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0193225539999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0746221330000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6334879550000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.938974212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.727978456</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3903488550000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.380612433</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1251104190000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6359875209999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.936889775</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.170574436</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4637836470000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50179757899999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.729519786</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.6129748000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.7379581709999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.062874503</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.85253622100000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99732649500000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82713886999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.19951744599999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5000422090000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.1755430420000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.9814562310000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.19507929299999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.01779978</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0265554129999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2512715549999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3.9932744999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3730868140000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.280294048</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.75649327</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.664340216</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.9927065380000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.123771204</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3223551819999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.16956978</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-7.3637390999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.0217900479999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.3654752390000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.657918676</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1596948390000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.5129802E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9528578990000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.6001228999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.936927431</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.3914514130000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.3718551149999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.12711155</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.6551862769999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-8.9348312999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.6197625090000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.072341373</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.6996113340000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.1745357839999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.362005495</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.50173562</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.069574692</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.9923286360000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.676215217</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.237072205</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.182066168</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.5122028759999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3997697419999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.96361270499999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5789473679999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1263492500000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1849252619999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.0630853810000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.1412901000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5183675599999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3619650590000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.764133846</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1623435990000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.473896213</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.991282081</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.741022369</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.9606816119999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.371324861</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.3027398109999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.754416545</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.704253775</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.9779235100000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.6923789979999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.394377591</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.9624188450000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.6513981929999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.663993762</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.525199921</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.9846503999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.309645382</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.594864668</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.736885715</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4084507040000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.163630859</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.8710987800000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.5686457850000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.8683568410000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.9252167120000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.23619108799999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.172187606</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.38355625500000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.495723527</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.7712081789999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.281435799</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.1436826579999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.681603264</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.5588282520000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6287159820000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.020986084</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.1431609119999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.838295869</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.1075846290000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.2862059669999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.2364471959999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.182848277</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.1481045620000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.0533489730000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-1.484348612</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-2.0971613539999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.7213311259999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.235192778</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.4267760439999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.631846857</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.3139594469999998</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.1433317779999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.98608182499999997</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.6257086429999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.64573304799999998</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.11792637</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.32909668600000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCA3-4568-AFB0-23CBB1E62FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309791647"/>
+        <c:axId val="289513535"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>unem3.3~4.2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>月!$C$2:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>月!$E$2:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3911476514999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3911476514999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2133274895000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2133274895000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0355073275000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0355073275000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0355073275000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5020468413999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5020468413999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1464065174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCA3-4568-AFB0-23CBB1E62FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>unem4.3~5.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>月!$C$45:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>月!$E$45:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2.6041979829000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5146070551999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5146070551999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5146070551999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5146070551999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4250161275000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4250161275000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4250161275000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4250161275000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4250161275000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4250161275000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3354251998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3354251998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3354251998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2458342721000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2458342721000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1562433445</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1562433445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1562433445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1562433445</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1562433445</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0666524167999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0666524167999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9770614891</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8874705614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8874705614</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8874705614</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8874705614</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8874705614</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7978796337</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7978796337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7978796337</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7978796337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7978796337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.708288706</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.708288706</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.708288706</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6186977783000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6186977783000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5291068506000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FCA3-4568-AFB0-23CBB1E62FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>unem5.5~7.4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>月!$C$85:$C$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>月!$E$85:$E$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2.9028796587999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9028796587999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9028796587999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8034692505000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8034692505000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7040588420999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7040588420999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7040588420999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7040588420999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6046484338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5052380255000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4058276171999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4058276171999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3064172089000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3064172089000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3064172089000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3064172089000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3064172089000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2070068005999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1075963923000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1075963923000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0081859839999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9087755757</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9087755757</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9087755757</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9087755757</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8093651674</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8093651674</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8093651674</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6105443507999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6105443507999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4117235342000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4117235342000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4117235342000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4117235342000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3123131259</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3123131259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1134923093</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1134923093</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.014081901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FCA3-4568-AFB0-23CBB1E62FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>unem7.5~9.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>月!$C$125:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>月!$E$125:$E$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2.0586961628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0401249428999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0401249428999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0401249428999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0215537228999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0215537228999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0215537228999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0029825029000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.984411283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9472688431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9286976230999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9286976230999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9101264032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8915551831999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8915551831999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8729839633000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8729839633000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8729839633000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8729839633000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8544127432999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8544127432999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8358415233000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8358415233000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8358415233000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8172703034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8172703034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7986990834000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7801278635</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7801278635</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7615566435000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7615566435000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7615566435000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7429854236</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7429854236</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7244142036000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7244142036000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7244142036000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7244142036000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7058429837</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6872717637000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6872717637000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FCA3-4568-AFB0-23CBB1E62FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>unem9.5~14.4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>月!$C$166:$C$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>月!$E$166:$E$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.86407880159999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86407880159999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86407880159999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85949360539999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85949360539999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8549084092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8549084092</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8549084092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8549084092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85032321300000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83198242820000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82281203589999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81822683969999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81364164350000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78613046630000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70359693479999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63940418809999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FCA3-4568-AFB0-23CBB1E62FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309791647"/>
+        <c:axId val="289513535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309791647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Unemployment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(monthly,%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.77041338582677166"/>
+              <c:y val="0.82865740740740745"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289513535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="289513535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Inflation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(monthly,%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309791647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7643888888888889"/>
+          <c:y val="4.0820209973753296E-2"/>
+          <c:w val="0.21616666666666667"/>
+          <c:h val="0.38079031787693207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12548381452318461"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.8015535870516185"/>
+          <c:h val="0.75606116943715374"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>inflation rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>月!$C$2:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>月!$D$2:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1.9964397760000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.711304513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7640429440000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0512779820000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2586293410000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2016696440000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4544013309999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5815115439999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2851297399999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7454273310000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.110322794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7902284690000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5224699290000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1766010320000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.801011715</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2769721939999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.462743943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9101588490000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0364028660000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0597579649999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5248147460000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.2626925030000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6484846559999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.5424555550000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.749779889</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.334873564</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8090028399999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.862522741</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1090824750000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.041128702</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.202582939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6991801039999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4101469690000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.811464806</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4865719550000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2329638649999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.359711404</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8710638980000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.199689878</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8748777210000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.949515087</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.520135266</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.8715478349999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-897A-44C1-A94C-CB1C61327D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309791647"/>
+        <c:axId val="289513535"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>unem3.3~4.2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>月!$C$2:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>月!$E$2:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7467879756000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5689678134999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3911476514999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3911476514999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2133274895000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2133274895000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0355073275000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0355073275000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0355073275000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8576871654999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6798670035000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5020468413999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5020468413999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3242266794000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1464065174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-897A-44C1-A94C-CB1C61327D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309791647"/>
+        <c:axId val="289513535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309791647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Unemployment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(monthly,%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.61370844269466318"/>
+              <c:y val="0.92125000000000001"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289513535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="289513535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Inflation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(monthly,%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309791647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77827777777777774"/>
+          <c:y val="4.0820209973753296E-2"/>
+          <c:w val="0.20227777777777778"/>
+          <c:h val="0.13541994750656167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -8382,6 +12223,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10485,6 +14406,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10600,10 +15553,340 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574CFE39-36D9-4F55-894A-0C376A5243BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FD70D0-F370-448F-9E43-48E7D681A298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="696986" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文字方塊 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210CF19A-C107-D438-4CDD-E578DB925772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12245340" y="7139940"/>
+          <a:ext cx="696986" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Desaster</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19382</cdr:x>
+      <cdr:y>0.04657</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79766</cdr:x>
+      <cdr:y>0.41221</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="橢圓 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3177817-B37D-1741-C1ED-AF67D4B6659E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="292140">
+          <a:off x="886166" y="127752"/>
+          <a:ext cx="2760752" cy="1003026"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.25124</cdr:x>
+      <cdr:y>0.55976</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8727</cdr:x>
+      <cdr:y>0.76339</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="橢圓 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4976FF84-9C15-D4D0-D82D-64F04C1A3A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="21394916">
+          <a:off x="1148675" y="1535542"/>
+          <a:ext cx="2841318" cy="558583"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75833</cdr:x>
+      <cdr:y>0.69167</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95833</cdr:x>
+      <cdr:y>0.83056</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A1287E-F35E-DDEE-085B-94E8E9AA7E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3467100" y="1897380"/>
+          <a:ext cx="914400" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>under</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> control</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10943,7 +16226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0358CEE0-6276-40FF-86CB-EC47D443D372}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -18971,8 +24254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0AA99-7A2F-4193-A6AC-324889833626}">
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="J25" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -18992,9 +24275,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>39448</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -19012,9 +24293,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>39479</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -19032,9 +24311,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>39508</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -19052,9 +24329,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>39539</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5">
         <v>4</v>
       </c>
@@ -19072,9 +24347,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>39569</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -19092,9 +24365,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>39600</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7">
         <v>6</v>
       </c>
@@ -19112,9 +24383,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>39630</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8">
         <v>7</v>
       </c>
@@ -19132,9 +24401,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>39661</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9">
         <v>8</v>
       </c>
@@ -19149,9 +24416,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>39692</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10">
         <v>9</v>
       </c>
@@ -19169,9 +24434,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>39722</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11">
         <v>10</v>
       </c>
@@ -19189,9 +24452,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>39753</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12">
         <v>11</v>
       </c>
@@ -19209,9 +24470,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>39783</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13">
         <v>12</v>
       </c>
@@ -19229,9 +24488,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>39814</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14">
         <v>13</v>
       </c>
@@ -19249,9 +24506,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>39845</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15">
         <v>14</v>
       </c>
@@ -19269,9 +24524,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>39873</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16">
         <v>15</v>
       </c>
@@ -19289,9 +24542,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>39904</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17">
         <v>16</v>
       </c>
@@ -19309,9 +24560,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>39934</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18">
         <v>17</v>
       </c>
@@ -19329,9 +24578,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>39965</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19">
         <v>18</v>
       </c>
@@ -19349,9 +24596,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>39995</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20">
         <v>19</v>
       </c>
@@ -19369,9 +24614,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>40026</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21">
         <v>20</v>
       </c>
@@ -19389,9 +24632,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>40057</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22">
         <v>21</v>
       </c>
@@ -19409,9 +24650,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>40087</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23">
         <v>22</v>
       </c>
@@ -19429,9 +24668,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>40118</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24">
         <v>23</v>
       </c>
@@ -19449,9 +24686,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>40148</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25">
         <v>24</v>
       </c>
@@ -19469,9 +24704,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>40179</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26">
         <v>25</v>
       </c>
@@ -19489,9 +24722,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>40210</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27">
         <v>26</v>
       </c>
@@ -19509,9 +24740,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>40238</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28">
         <v>27</v>
       </c>
@@ -19529,9 +24758,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>40269</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29">
         <v>28</v>
       </c>
@@ -19549,9 +24776,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>40299</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30">
         <v>29</v>
       </c>
@@ -19569,9 +24794,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>40330</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31">
         <v>30</v>
       </c>
@@ -19589,9 +24812,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>40360</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32">
         <v>31</v>
       </c>
@@ -19609,9 +24830,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>40391</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33">
         <v>32</v>
       </c>
@@ -19629,9 +24848,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>40422</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34">
         <v>33</v>
       </c>
@@ -19649,9 +24866,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>40452</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35">
         <v>34</v>
       </c>
@@ -19666,9 +24881,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>40483</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36">
         <v>35</v>
       </c>
@@ -19686,9 +24899,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>40513</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37">
         <v>36</v>
       </c>
@@ -19715,9 +24926,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>40544</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38">
         <v>37</v>
       </c>
@@ -19751,9 +24960,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>40575</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39">
         <v>38</v>
       </c>
@@ -19780,9 +24987,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>40603</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40">
         <v>39</v>
       </c>
@@ -19806,9 +25011,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>40634</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41">
         <v>40</v>
       </c>
@@ -19826,9 +25029,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40664</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42">
         <v>41</v>
       </c>
@@ -19843,9 +25044,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>40695</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43">
         <v>42</v>
       </c>
@@ -19860,9 +25059,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>40725</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44">
         <v>43</v>
       </c>
@@ -19877,9 +25074,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>40756</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45">
         <v>44</v>
       </c>
@@ -19894,9 +25089,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>40787</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46">
         <v>45</v>
       </c>
@@ -19911,9 +25104,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>40817</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47">
         <v>46</v>
       </c>
@@ -19928,9 +25119,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>40848</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48">
         <v>47</v>
       </c>
@@ -19945,9 +25134,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>40878</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49">
         <v>48</v>
       </c>
@@ -19962,9 +25149,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>40909</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50">
         <v>49</v>
       </c>
@@ -19979,9 +25164,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>40940</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51">
         <v>50</v>
       </c>
@@ -19996,9 +25179,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>40969</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52">
         <v>51</v>
       </c>
@@ -20013,9 +25194,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>41000</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53">
         <v>52</v>
       </c>
@@ -20030,9 +25209,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>41030</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54">
         <v>53</v>
       </c>
@@ -20047,9 +25224,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>41061</v>
-      </c>
+      <c r="A55" s="1"/>
       <c r="B55">
         <v>54</v>
       </c>
@@ -20064,9 +25239,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>41091</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56">
         <v>55</v>
       </c>
@@ -20081,9 +25254,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>41122</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57">
         <v>56</v>
       </c>
@@ -20098,9 +25269,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>41153</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58">
         <v>57</v>
       </c>
@@ -20115,9 +25284,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>41183</v>
-      </c>
+      <c r="A59" s="1"/>
       <c r="B59">
         <v>58</v>
       </c>
@@ -20132,9 +25299,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>41214</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60">
         <v>59</v>
       </c>
@@ -20149,9 +25314,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>41244</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="B61">
         <v>60</v>
       </c>
@@ -20166,9 +25329,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>41275</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62">
         <v>61</v>
       </c>
@@ -20183,9 +25344,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>41306</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63">
         <v>62</v>
       </c>
@@ -20200,9 +25359,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>41334</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64">
         <v>63</v>
       </c>
@@ -20217,9 +25374,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>41365</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65">
         <v>64</v>
       </c>
@@ -20234,9 +25389,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>41395</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66">
         <v>65</v>
       </c>
@@ -20251,9 +25404,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>41426</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67">
         <v>66</v>
       </c>
@@ -20268,9 +25419,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>41456</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68">
         <v>67</v>
       </c>
@@ -20285,9 +25434,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>41487</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69">
         <v>68</v>
       </c>
@@ -20302,9 +25449,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>41518</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70">
         <v>69</v>
       </c>
@@ -20319,9 +25464,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>41548</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71">
         <v>70</v>
       </c>
@@ -20336,9 +25479,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>41579</v>
-      </c>
+      <c r="A72" s="1"/>
       <c r="B72">
         <v>71</v>
       </c>
@@ -20353,9 +25494,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>41609</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73">
         <v>72</v>
       </c>
@@ -20370,9 +25509,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>41640</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74">
         <v>73</v>
       </c>
@@ -20387,9 +25524,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>41671</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75">
         <v>74</v>
       </c>
@@ -20404,9 +25539,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>41699</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76">
         <v>75</v>
       </c>
@@ -20421,9 +25554,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>41730</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77">
         <v>76</v>
       </c>
@@ -20438,9 +25569,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>41760</v>
-      </c>
+      <c r="A78" s="1"/>
       <c r="B78">
         <v>77</v>
       </c>
@@ -20455,9 +25584,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>41791</v>
-      </c>
+      <c r="A79" s="1"/>
       <c r="B79">
         <v>78</v>
       </c>
@@ -20472,9 +25599,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>41821</v>
-      </c>
+      <c r="A80" s="1"/>
       <c r="B80">
         <v>79</v>
       </c>
@@ -20489,9 +25614,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>41852</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81">
         <v>80</v>
       </c>
@@ -20506,9 +25629,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>41883</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="B82">
         <v>81</v>
       </c>
@@ -20523,9 +25644,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>41913</v>
-      </c>
+      <c r="A83" s="1"/>
       <c r="B83">
         <v>82</v>
       </c>
@@ -20540,9 +25659,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>41944</v>
-      </c>
+      <c r="A84" s="1"/>
       <c r="B84">
         <v>83</v>
       </c>
@@ -20557,9 +25674,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>41974</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85">
         <v>84</v>
       </c>
@@ -20574,9 +25689,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>42005</v>
-      </c>
+      <c r="A86" s="1"/>
       <c r="B86">
         <v>85</v>
       </c>
@@ -20591,9 +25704,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>42036</v>
-      </c>
+      <c r="A87" s="1"/>
       <c r="B87">
         <v>86</v>
       </c>
@@ -20608,9 +25719,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>42064</v>
-      </c>
+      <c r="A88" s="1"/>
       <c r="B88">
         <v>87</v>
       </c>
@@ -20625,9 +25734,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>42095</v>
-      </c>
+      <c r="A89" s="1"/>
       <c r="B89">
         <v>88</v>
       </c>
@@ -20642,9 +25749,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>42125</v>
-      </c>
+      <c r="A90" s="1"/>
       <c r="B90">
         <v>89</v>
       </c>
@@ -20659,9 +25764,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>42156</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91">
         <v>90</v>
       </c>
@@ -20676,9 +25779,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>42186</v>
-      </c>
+      <c r="A92" s="1"/>
       <c r="B92">
         <v>91</v>
       </c>
@@ -20693,9 +25794,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>42217</v>
-      </c>
+      <c r="A93" s="1"/>
       <c r="B93">
         <v>92</v>
       </c>
@@ -20710,9 +25809,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>42248</v>
-      </c>
+      <c r="A94" s="1"/>
       <c r="B94">
         <v>93</v>
       </c>
@@ -20727,9 +25824,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>42278</v>
-      </c>
+      <c r="A95" s="1"/>
       <c r="B95">
         <v>94</v>
       </c>
@@ -20744,9 +25839,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>42309</v>
-      </c>
+      <c r="A96" s="1"/>
       <c r="B96">
         <v>95</v>
       </c>
@@ -20761,9 +25854,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>42339</v>
-      </c>
+      <c r="A97" s="1"/>
       <c r="B97">
         <v>96</v>
       </c>
@@ -20778,9 +25869,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>42370</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="B98">
         <v>97</v>
       </c>
@@ -20795,9 +25884,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>42401</v>
-      </c>
+      <c r="A99" s="1"/>
       <c r="B99">
         <v>98</v>
       </c>
@@ -20812,9 +25899,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>42430</v>
-      </c>
+      <c r="A100" s="1"/>
       <c r="B100">
         <v>99</v>
       </c>
@@ -20829,9 +25914,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>42461</v>
-      </c>
+      <c r="A101" s="1"/>
       <c r="B101">
         <v>100</v>
       </c>
@@ -20846,9 +25929,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>42491</v>
-      </c>
+      <c r="A102" s="1"/>
       <c r="B102">
         <v>101</v>
       </c>
@@ -20863,9 +25944,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>42522</v>
-      </c>
+      <c r="A103" s="1"/>
       <c r="B103">
         <v>102</v>
       </c>
@@ -20880,9 +25959,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>42552</v>
-      </c>
+      <c r="A104" s="1"/>
       <c r="B104">
         <v>103</v>
       </c>
@@ -20897,9 +25974,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>42583</v>
-      </c>
+      <c r="A105" s="1"/>
       <c r="B105">
         <v>104</v>
       </c>
@@ -20914,9 +25989,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>42614</v>
-      </c>
+      <c r="A106" s="1"/>
       <c r="B106">
         <v>105</v>
       </c>
@@ -20931,9 +26004,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>42644</v>
-      </c>
+      <c r="A107" s="1"/>
       <c r="B107">
         <v>106</v>
       </c>
@@ -20948,9 +26019,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>42675</v>
-      </c>
+      <c r="A108" s="1"/>
       <c r="B108">
         <v>107</v>
       </c>
@@ -20965,9 +26034,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>42705</v>
-      </c>
+      <c r="A109" s="1"/>
       <c r="B109">
         <v>108</v>
       </c>
@@ -20982,9 +26049,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>42736</v>
-      </c>
+      <c r="A110" s="1"/>
       <c r="B110">
         <v>109</v>
       </c>
@@ -20999,9 +26064,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>42767</v>
-      </c>
+      <c r="A111" s="1"/>
       <c r="B111">
         <v>110</v>
       </c>
@@ -21016,9 +26079,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>42795</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112">
         <v>111</v>
       </c>
@@ -21033,9 +26094,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>42826</v>
-      </c>
+      <c r="A113" s="1"/>
       <c r="B113">
         <v>112</v>
       </c>
@@ -21050,9 +26109,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>42856</v>
-      </c>
+      <c r="A114" s="1"/>
       <c r="B114">
         <v>113</v>
       </c>
@@ -21067,9 +26124,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>42887</v>
-      </c>
+      <c r="A115" s="1"/>
       <c r="B115">
         <v>114</v>
       </c>
@@ -21084,9 +26139,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>42917</v>
-      </c>
+      <c r="A116" s="1"/>
       <c r="B116">
         <v>115</v>
       </c>
@@ -21101,9 +26154,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>42948</v>
-      </c>
+      <c r="A117" s="1"/>
       <c r="B117">
         <v>116</v>
       </c>
@@ -21118,9 +26169,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>42979</v>
-      </c>
+      <c r="A118" s="1"/>
       <c r="B118">
         <v>117</v>
       </c>
@@ -21135,9 +26184,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>43009</v>
-      </c>
+      <c r="A119" s="1"/>
       <c r="B119">
         <v>118</v>
       </c>
@@ -21152,9 +26199,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>43040</v>
-      </c>
+      <c r="A120" s="1"/>
       <c r="B120">
         <v>119</v>
       </c>
@@ -21184,9 +26229,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>43070</v>
-      </c>
+      <c r="A121" s="1"/>
       <c r="B121">
         <v>120</v>
       </c>
@@ -21216,9 +26259,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>43101</v>
-      </c>
+      <c r="A122" s="1"/>
       <c r="B122">
         <v>121</v>
       </c>
@@ -21248,9 +26289,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>43132</v>
-      </c>
+      <c r="A123" s="1"/>
       <c r="B123">
         <v>122</v>
       </c>
@@ -21280,9 +26319,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>43160</v>
-      </c>
+      <c r="A124" s="1"/>
       <c r="B124">
         <v>123</v>
       </c>
@@ -21312,9 +26349,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>43191</v>
-      </c>
+      <c r="A125" s="1"/>
       <c r="B125">
         <v>124</v>
       </c>
@@ -21344,9 +26379,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>43221</v>
-      </c>
+      <c r="A126" s="1"/>
       <c r="B126">
         <v>125</v>
       </c>
@@ -21376,9 +26409,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>43252</v>
-      </c>
+      <c r="A127" s="1"/>
       <c r="B127">
         <v>126</v>
       </c>
@@ -21408,9 +26439,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>43282</v>
-      </c>
+      <c r="A128" s="1"/>
       <c r="B128">
         <v>127</v>
       </c>
@@ -21440,9 +26469,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>43313</v>
-      </c>
+      <c r="A129" s="1"/>
       <c r="B129">
         <v>128</v>
       </c>
@@ -21472,9 +26499,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>43344</v>
-      </c>
+      <c r="A130" s="1"/>
       <c r="B130">
         <v>129</v>
       </c>
@@ -21504,9 +26529,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>43374</v>
-      </c>
+      <c r="A131" s="1"/>
       <c r="B131">
         <v>130</v>
       </c>
@@ -21536,9 +26559,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>43405</v>
-      </c>
+      <c r="A132" s="1"/>
       <c r="B132">
         <v>131</v>
       </c>
@@ -21568,9 +26589,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>43435</v>
-      </c>
+      <c r="A133" s="1"/>
       <c r="B133">
         <v>132</v>
       </c>
@@ -21600,9 +26619,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>43466</v>
-      </c>
+      <c r="A134" s="1"/>
       <c r="B134">
         <v>133</v>
       </c>
@@ -21632,9 +26649,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>43497</v>
-      </c>
+      <c r="A135" s="1"/>
       <c r="B135">
         <v>134</v>
       </c>
@@ -21664,9 +26679,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>43525</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="B136">
         <v>135</v>
       </c>
@@ -21696,9 +26709,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>43556</v>
-      </c>
+      <c r="A137" s="1"/>
       <c r="B137">
         <v>136</v>
       </c>
@@ -21728,9 +26739,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
-        <v>43586</v>
-      </c>
+      <c r="A138" s="1"/>
       <c r="B138">
         <v>137</v>
       </c>
@@ -21760,9 +26769,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
-        <v>43617</v>
-      </c>
+      <c r="A139" s="1"/>
       <c r="B139">
         <v>138</v>
       </c>
@@ -21792,9 +26799,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>43647</v>
-      </c>
+      <c r="A140" s="1"/>
       <c r="B140">
         <v>139</v>
       </c>
@@ -21824,9 +26829,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>43678</v>
-      </c>
+      <c r="A141" s="1"/>
       <c r="B141">
         <v>140</v>
       </c>
@@ -21856,9 +26859,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>43709</v>
-      </c>
+      <c r="A142" s="1"/>
       <c r="B142">
         <v>141</v>
       </c>
@@ -21888,9 +26889,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>43739</v>
-      </c>
+      <c r="A143" s="1"/>
       <c r="B143">
         <v>142</v>
       </c>
@@ -21920,9 +26919,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>43770</v>
-      </c>
+      <c r="A144" s="1"/>
       <c r="B144">
         <v>143</v>
       </c>
@@ -21952,9 +26949,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>43800</v>
-      </c>
+      <c r="A145" s="1"/>
       <c r="B145">
         <v>144</v>
       </c>
@@ -21984,9 +26979,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>43831</v>
-      </c>
+      <c r="A146" s="1"/>
       <c r="B146">
         <v>145</v>
       </c>
@@ -22016,9 +27009,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>43862</v>
-      </c>
+      <c r="A147" s="1"/>
       <c r="B147">
         <v>146</v>
       </c>
@@ -22048,9 +27039,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>43891</v>
-      </c>
+      <c r="A148" s="1"/>
       <c r="B148">
         <v>147</v>
       </c>
@@ -22080,9 +27069,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>43922</v>
-      </c>
+      <c r="A149" s="1"/>
       <c r="B149">
         <v>148</v>
       </c>
@@ -22112,9 +27099,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>43952</v>
-      </c>
+      <c r="A150" s="1"/>
       <c r="B150">
         <v>149</v>
       </c>
@@ -22144,9 +27129,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>43983</v>
-      </c>
+      <c r="A151" s="1"/>
       <c r="B151">
         <v>150</v>
       </c>
@@ -22176,9 +27159,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>44013</v>
-      </c>
+      <c r="A152" s="1"/>
       <c r="B152">
         <v>151</v>
       </c>
@@ -22208,9 +27189,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>44044</v>
-      </c>
+      <c r="A153" s="1"/>
       <c r="B153">
         <v>152</v>
       </c>
@@ -22240,9 +27219,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <v>44075</v>
-      </c>
+      <c r="A154" s="1"/>
       <c r="B154">
         <v>153</v>
       </c>
@@ -22272,9 +27249,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>44105</v>
-      </c>
+      <c r="A155" s="1"/>
       <c r="B155">
         <v>154</v>
       </c>
@@ -22304,9 +27279,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>44136</v>
-      </c>
+      <c r="A156" s="1"/>
       <c r="B156">
         <v>155</v>
       </c>
@@ -22336,9 +27309,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <v>44166</v>
-      </c>
+      <c r="A157" s="1"/>
       <c r="B157">
         <v>156</v>
       </c>
@@ -22368,9 +27339,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>44197</v>
-      </c>
+      <c r="A158" s="1"/>
       <c r="B158">
         <v>157</v>
       </c>
@@ -22400,9 +27369,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <v>44228</v>
-      </c>
+      <c r="A159" s="1"/>
       <c r="B159">
         <v>158</v>
       </c>
@@ -22432,9 +27399,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <v>44256</v>
-      </c>
+      <c r="A160" s="1"/>
       <c r="B160">
         <v>159</v>
       </c>
@@ -22464,9 +27429,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
-        <v>44287</v>
-      </c>
+      <c r="A161" s="1"/>
       <c r="B161">
         <v>160</v>
       </c>
@@ -22481,9 +27444,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>44317</v>
-      </c>
+      <c r="A162" s="1"/>
       <c r="B162">
         <v>161</v>
       </c>
@@ -22498,9 +27459,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>44348</v>
-      </c>
+      <c r="A163" s="1"/>
       <c r="B163">
         <v>162</v>
       </c>
@@ -22515,9 +27474,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
-        <v>44378</v>
-      </c>
+      <c r="A164" s="1"/>
       <c r="B164">
         <v>163</v>
       </c>
@@ -22532,9 +27489,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>44409</v>
-      </c>
+      <c r="A165" s="1"/>
       <c r="B165">
         <v>164</v>
       </c>
@@ -22549,9 +27504,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>44440</v>
-      </c>
+      <c r="A166" s="1"/>
       <c r="B166">
         <v>165</v>
       </c>
@@ -22566,9 +27519,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
-        <v>44470</v>
-      </c>
+      <c r="A167" s="1"/>
       <c r="B167">
         <v>166</v>
       </c>
@@ -22583,9 +27534,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
-        <v>44501</v>
-      </c>
+      <c r="A168" s="1"/>
       <c r="B168">
         <v>167</v>
       </c>
@@ -22600,9 +27549,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>44531</v>
-      </c>
+      <c r="A169" s="1"/>
       <c r="B169">
         <v>168</v>
       </c>
@@ -22617,9 +27564,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <v>44562</v>
-      </c>
+      <c r="A170" s="1"/>
       <c r="B170">
         <v>169</v>
       </c>
@@ -22634,9 +27579,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>44593</v>
-      </c>
+      <c r="A171" s="1"/>
       <c r="B171">
         <v>170</v>
       </c>
@@ -22651,9 +27594,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>44621</v>
-      </c>
+      <c r="A172" s="1"/>
       <c r="B172">
         <v>171</v>
       </c>
@@ -22668,9 +27609,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>44652</v>
-      </c>
+      <c r="A173" s="1"/>
       <c r="B173">
         <v>172</v>
       </c>
@@ -22685,9 +27624,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <v>44682</v>
-      </c>
+      <c r="A174" s="1"/>
       <c r="B174">
         <v>173</v>
       </c>
@@ -22702,9 +27639,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>44713</v>
-      </c>
+      <c r="A175" s="1"/>
       <c r="B175">
         <v>174</v>
       </c>
@@ -22719,9 +27654,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>44743</v>
-      </c>
+      <c r="A176" s="1"/>
       <c r="B176">
         <v>175</v>
       </c>
@@ -22736,9 +27669,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>44774</v>
-      </c>
+      <c r="A177" s="1"/>
       <c r="B177">
         <v>176</v>
       </c>
@@ -22753,9 +27684,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>44805</v>
-      </c>
+      <c r="A178" s="1"/>
       <c r="B178">
         <v>177</v>
       </c>
@@ -22770,9 +27699,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>44835</v>
-      </c>
+      <c r="A179" s="1"/>
       <c r="B179">
         <v>178</v>
       </c>
@@ -22787,9 +27714,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>44866</v>
-      </c>
+      <c r="A180" s="1"/>
       <c r="B180">
         <v>179</v>
       </c>
@@ -22804,9 +27729,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>44896</v>
-      </c>
+      <c r="A181" s="1"/>
       <c r="B181">
         <v>180</v>
       </c>
@@ -22821,9 +27744,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>44927</v>
-      </c>
+      <c r="A182" s="1"/>
       <c r="B182">
         <v>181</v>
       </c>
@@ -22838,9 +27759,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>44958</v>
-      </c>
+      <c r="A183" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
